--- a/outputs/resultado_optimizacion_gps_fase1.xlsx
+++ b/outputs/resultado_optimizacion_gps_fase1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,420 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Antofagasta</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>35.5349388185654</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Calama</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>terrestre</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6.800871308016879</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Caldera</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>36.33016455696202</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>terrestre</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.384820675105485</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>16.09648734177215</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>23.59148523206751</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Iquique</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>101.5025379746835</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lautaro</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Efrain</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>56.56758860759494</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mejillones</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Wilmer</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>160.9735696202532</v>
-      </c>
-      <c r="E10" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>7.526755274261603</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>20.43009282700422</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Puerto Montt</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Fabian D.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>96.05298312236289</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Puerto Natales</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>8.818426160337554</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Punta Arenas</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>46.24759282700422</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8.598476793248945</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>San Fernando</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Efrain</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>56.51931012658228</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>111.925976793249</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5.264947257383966</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/resultado_optimizacion_gps_fase1.xlsx
+++ b/outputs/resultado_optimizacion_gps_fase1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,41 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>costo_aprox_fase1_uf</t>
+          <t>costo_aprox_uf</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dias_aprox_fase1</t>
+          <t>dias_aprox</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nota</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pxq</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SCL_GPS_EXTERNOS=191</t>
         </is>
       </c>
     </row>

--- a/outputs/resultado_optimizacion_gps_fase1.xlsx
+++ b/outputs/resultado_optimizacion_gps_fase1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,82 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>costo_aprox_uf</t>
+          <t>costo_aprox_fase1_uf</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dias_aprox</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nota</t>
+          <t>dias_aprox_fase1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Calama</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pxq</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SCL_GPS_EXTERNOS=191</t>
-        </is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>11.44378797468354</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5.313362341772152</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>45.76070042194093</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/resultado_optimizacion_gps_fase1.xlsx
+++ b/outputs/resultado_optimizacion_gps_fase1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,75 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Calama</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>terrestre</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>11.44378797468354</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>terrestre</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5.313362341772152</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>terrestre</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>45.76070042194093</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/resultado_optimizacion_gps_fase1.xlsx
+++ b/outputs/resultado_optimizacion_gps_fase1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,52 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12.46700421940928</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10.00965400843882</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/resultado_optimizacion_gps_fase1.xlsx
+++ b/outputs/resultado_optimizacion_gps_fase1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Viña del Mar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,33 +477,240 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.46700421940928</v>
+        <v>43.6863</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Talca</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>16.0235</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19.82393333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7.286666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Iquique</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10.33776666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Temuco</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Jimmy</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>terrestre</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10.00965400843882</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>25.81096666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Concepcion</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>28.2453</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chillan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.950000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>15.81144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16.268</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>14.5658</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
